--- a/res/Levels/14/flowers.xlsx
+++ b/res/Levels/14/flowers.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13753\Dropbox\Share\Levels\Level 18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dallas\Dropbox\Share\Levels\14\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="bubbles" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="3">
   <si>
     <t>green garnet</t>
   </si>
@@ -1139,7 +1139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -1701,7 +1701,7 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>IF(Design!A12="dirt", 1, IF(Design!A12="sapphire", 2,  IF(Design!A12="ruby", 3,  IF(Design!A12="amethyst", 4,  IF(Design!A12="green garnet", 5,  IF(Design!A12="sand", 6,  IF(Design!A12="red tunnel", 7,  IF(Design!A12="blue tunnel", 8,  IF(Design!A12="green tunnel", 9,  IF(Design!A12="root", 10, IF(Design!A12=ISBLANK(0), 0, 0)))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <f>IF(Design!B12="dirt", 1, IF(Design!B12="sapphire", 2,  IF(Design!B12="ruby", 3,  IF(Design!B12="amethyst", 4,  IF(Design!B12="green garnet", 5,  IF(Design!B12="sand", 6,  IF(Design!B12="red tunnel", 7,  IF(Design!B12="blue tunnel", 8,  IF(Design!B12="green tunnel", 9,  IF(Design!B12="root", 10, IF(Design!B12=ISBLANK(0), 0, 0)))))))))))</f>
@@ -1709,15 +1709,15 @@
       </c>
       <c r="C12">
         <f>IF(Design!C12="dirt", 1, IF(Design!C12="sapphire", 2,  IF(Design!C12="ruby", 3,  IF(Design!C12="amethyst", 4,  IF(Design!C12="green garnet", 5,  IF(Design!C12="sand", 6,  IF(Design!C12="red tunnel", 7,  IF(Design!C12="blue tunnel", 8,  IF(Design!C12="green tunnel", 9,  IF(Design!C12="root", 10, IF(Design!C12=ISBLANK(0), 0, 0)))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <f>IF(Design!D12="dirt", 1, IF(Design!D12="sapphire", 2,  IF(Design!D12="ruby", 3,  IF(Design!D12="amethyst", 4,  IF(Design!D12="green garnet", 5,  IF(Design!D12="sand", 6,  IF(Design!D12="red tunnel", 7,  IF(Design!D12="blue tunnel", 8,  IF(Design!D12="green tunnel", 9,  IF(Design!D12="root", 10, IF(Design!D12=ISBLANK(0), 0, 0)))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <f>IF(Design!E12="dirt", 1, IF(Design!E12="sapphire", 2,  IF(Design!E12="ruby", 3,  IF(Design!E12="amethyst", 4,  IF(Design!E12="green garnet", 5,  IF(Design!E12="sand", 6,  IF(Design!E12="red tunnel", 7,  IF(Design!E12="blue tunnel", 8,  IF(Design!E12="green tunnel", 9,  IF(Design!E12="root", 10, IF(Design!E12=ISBLANK(0), 0, 0)))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F12">
         <f>IF(Design!F12="dirt", 1, IF(Design!F12="sapphire", 2,  IF(Design!F12="ruby", 3,  IF(Design!F12="amethyst", 4,  IF(Design!F12="green garnet", 5,  IF(Design!F12="sand", 6,  IF(Design!F12="red tunnel", 7,  IF(Design!F12="blue tunnel", 8,  IF(Design!F12="green tunnel", 9,  IF(Design!F12="root", 10, IF(Design!F12=ISBLANK(0), 0, 0)))))))))))</f>
@@ -1725,15 +1725,15 @@
       </c>
       <c r="G12">
         <f>IF(Design!G12="dirt", 1, IF(Design!G12="sapphire", 2,  IF(Design!G12="ruby", 3,  IF(Design!G12="amethyst", 4,  IF(Design!G12="green garnet", 5,  IF(Design!G12="sand", 6,  IF(Design!G12="red tunnel", 7,  IF(Design!G12="blue tunnel", 8,  IF(Design!G12="green tunnel", 9,  IF(Design!G12="root", 10, IF(Design!G12=ISBLANK(0), 0, 0)))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H12">
         <f>IF(Design!H12="dirt", 1, IF(Design!H12="sapphire", 2,  IF(Design!H12="ruby", 3,  IF(Design!H12="amethyst", 4,  IF(Design!H12="green garnet", 5,  IF(Design!H12="sand", 6,  IF(Design!H12="red tunnel", 7,  IF(Design!H12="blue tunnel", 8,  IF(Design!H12="green tunnel", 9,  IF(Design!H12="root", 10, IF(Design!H12=ISBLANK(0), 0, 0)))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I12">
         <f>IF(Design!I12="dirt", 1, IF(Design!I12="sapphire", 2,  IF(Design!I12="ruby", 3,  IF(Design!I12="amethyst", 4,  IF(Design!I12="green garnet", 5,  IF(Design!I12="sand", 6,  IF(Design!I12="red tunnel", 7,  IF(Design!I12="blue tunnel", 8,  IF(Design!I12="green tunnel", 9,  IF(Design!I12="root", 10, IF(Design!I12=ISBLANK(0), 0, 0)))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J12">
         <f>IF(Design!J12="dirt", 1, IF(Design!J12="sapphire", 2,  IF(Design!J12="ruby", 3,  IF(Design!J12="amethyst", 4,  IF(Design!J12="green garnet", 5,  IF(Design!J12="sand", 6,  IF(Design!J12="red tunnel", 7,  IF(Design!J12="blue tunnel", 8,  IF(Design!J12="green tunnel", 9,  IF(Design!J12="root", 10, IF(Design!J12=ISBLANK(0), 0, 0)))))))))))</f>
@@ -1741,11 +1741,11 @@
       </c>
       <c r="K12">
         <f>IF(Design!K12="dirt", 1, IF(Design!K12="sapphire", 2,  IF(Design!K12="ruby", 3,  IF(Design!K12="amethyst", 4,  IF(Design!K12="green garnet", 5,  IF(Design!K12="sand", 6,  IF(Design!K12="red tunnel", 7,  IF(Design!K12="blue tunnel", 8,  IF(Design!K12="green tunnel", 9,  IF(Design!K12="root", 10, IF(Design!K12=ISBLANK(0), 0, 0)))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L12">
         <f>IF(Design!L12="dirt", 1, IF(Design!L12="sapphire", 2,  IF(Design!L12="ruby", 3,  IF(Design!L12="amethyst", 4,  IF(Design!L12="green garnet", 5,  IF(Design!L12="sand", 6,  IF(Design!L12="red tunnel", 7,  IF(Design!L12="blue tunnel", 8,  IF(Design!L12="green tunnel", 9,  IF(Design!L12="root", 10, IF(Design!L12=ISBLANK(0), 0, 0)))))))))))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1757,8 +1757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,24 +1963,42 @@
       <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
+      <c r="A12" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="B12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="F12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="J12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
+      <c r="K12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:L12">
